--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cressanda Solution Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -612,10 +612,10 @@
         <v>3.17</v>
       </c>
       <c r="N2">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O2">
-        <v>4.251333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="P2">
         <v>5.96</v>
@@ -680,7 +680,7 @@
         <v>3.17</v>
       </c>
       <c r="N3">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O3">
         <v>0.01</v>
@@ -748,10 +748,10 @@
         <v>3.17</v>
       </c>
       <c r="N4">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O4">
-        <v>4.251333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="P4">
         <v>4.72</v>
@@ -816,10 +816,10 @@
         <v>3.37</v>
       </c>
       <c r="N5">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O5">
-        <v>4.251333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="P5">
         <v>4.29</v>
@@ -884,10 +884,10 @@
         <v>3.17</v>
       </c>
       <c r="N6">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O6">
-        <v>4.251333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="P6">
         <v>3.83</v>
@@ -952,10 +952,10 @@
         <v>3.17</v>
       </c>
       <c r="N7">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O7">
-        <v>4.251333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="P7">
         <v>3.59</v>
@@ -999,7 +999,7 @@
         <v>0.13</v>
       </c>
       <c r="G8">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H8">
         <v>0.11</v>
@@ -1011,16 +1011,16 @@
         <v>1.99</v>
       </c>
       <c r="K8">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L8">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M8">
         <v>1.09</v>
       </c>
       <c r="N8">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O8">
         <v>0.86</v>
@@ -1029,7 +1029,7 @@
         <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R8">
         <v>0.04</v>
@@ -1067,28 +1067,28 @@
         <v>0.11</v>
       </c>
       <c r="G9">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H9">
-        <v>1.028947368421052</v>
+        <v>1.03</v>
       </c>
       <c r="I9">
-        <v>6.983157894736842</v>
+        <v>6.98</v>
       </c>
       <c r="J9">
         <v>1.79</v>
       </c>
       <c r="K9">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L9">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M9">
         <v>1.09</v>
       </c>
       <c r="N9">
-        <v>19.88333333333333</v>
+        <v>19.88</v>
       </c>
       <c r="O9">
         <v>0.65</v>
@@ -1097,7 +1097,7 @@
         <v>1.74</v>
       </c>
       <c r="Q9">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R9">
         <v>0.04</v>
@@ -1171,7 +1171,7 @@
         <v>0.18</v>
       </c>
       <c r="S10">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T10">
         <v>26.95</v>
@@ -1221,7 +1221,7 @@
         <v>0.05</v>
       </c>
       <c r="M11">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N11">
         <v>24.11</v>
@@ -1239,7 +1239,7 @@
         <v>0.18</v>
       </c>
       <c r="S11">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T11">
         <v>29.37</v>
@@ -1248,7 +1248,7 @@
         <v>53.68</v>
       </c>
       <c r="V11">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1271,7 +1271,7 @@
         <v>29.71</v>
       </c>
       <c r="G12">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H12">
         <v>0.1</v>
@@ -1289,7 +1289,7 @@
         <v>0.04</v>
       </c>
       <c r="M12">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N12">
         <v>18.87</v>
@@ -1301,13 +1301,13 @@
         <v>29.5</v>
       </c>
       <c r="Q12">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R12">
         <v>0.23</v>
       </c>
       <c r="S12">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T12">
         <v>0.31</v>
@@ -1316,7 +1316,7 @@
         <v>29.81</v>
       </c>
       <c r="V12">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1339,7 +1339,7 @@
         <v>29.29</v>
       </c>
       <c r="G13">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H13">
         <v>0.01</v>
@@ -1357,7 +1357,7 @@
         <v>0.03</v>
       </c>
       <c r="M13">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N13">
         <v>18.96</v>
@@ -1369,13 +1369,13 @@
         <v>29.2</v>
       </c>
       <c r="Q13">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R13">
         <v>0.1</v>
       </c>
       <c r="S13">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T13">
         <v>0.1</v>
@@ -1384,7 +1384,7 @@
         <v>29.3</v>
       </c>
       <c r="V13">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1407,7 +1407,7 @@
         <v>24.35</v>
       </c>
       <c r="G14">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H14">
         <v>0.04</v>
@@ -1419,13 +1419,13 @@
         <v>24.39</v>
       </c>
       <c r="K14">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L14">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M14">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N14">
         <v>19.17</v>
@@ -1437,13 +1437,13 @@
         <v>24.29</v>
       </c>
       <c r="Q14">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R14">
         <v>0.1</v>
       </c>
       <c r="S14">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T14">
         <v>0.1</v>
@@ -1452,7 +1452,7 @@
         <v>24.39</v>
       </c>
       <c r="V14">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1475,7 +1475,7 @@
         <v>24.34</v>
       </c>
       <c r="G15">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H15">
         <v>0.02</v>
@@ -1487,13 +1487,13 @@
         <v>24.36</v>
       </c>
       <c r="K15">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L15">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M15">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N15">
         <v>19.22</v>
@@ -1505,13 +1505,13 @@
         <v>24.23</v>
       </c>
       <c r="Q15">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R15">
         <v>0.13</v>
       </c>
       <c r="S15">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T15">
         <v>0.13</v>
@@ -1520,7 +1520,7 @@
         <v>24.36</v>
       </c>
       <c r="V15">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1543,7 +1543,7 @@
         <v>24.25</v>
       </c>
       <c r="G16">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H16">
         <v>0.02</v>
@@ -1555,13 +1555,13 @@
         <v>24.27</v>
       </c>
       <c r="K16">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L16">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M16">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N16">
         <v>19.23</v>
@@ -1573,13 +1573,13 @@
         <v>24.18</v>
       </c>
       <c r="Q16">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R16">
         <v>0.09</v>
       </c>
       <c r="S16">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T16">
         <v>0.09</v>
@@ -1588,7 +1588,7 @@
         <v>24.27</v>
       </c>
       <c r="V16">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1611,7 +1611,7 @@
         <v>24.17</v>
       </c>
       <c r="G17">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H17">
         <v>0.02</v>
@@ -1623,13 +1623,13 @@
         <v>24.25</v>
       </c>
       <c r="K17">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L17">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M17">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N17">
         <v>19.23</v>
@@ -1641,13 +1641,13 @@
         <v>24.18</v>
       </c>
       <c r="Q17">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R17">
         <v>0.07000000000000001</v>
       </c>
       <c r="S17">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T17">
         <v>0.07000000000000001</v>
@@ -1656,7 +1656,7 @@
         <v>24.25</v>
       </c>
       <c r="V17">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1679,7 +1679,7 @@
         <v>24.17</v>
       </c>
       <c r="G18">
-        <v>9.218181818181819</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="H18">
         <v>0.03</v>
@@ -1691,13 +1691,13 @@
         <v>24.2</v>
       </c>
       <c r="K18">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L18">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M18">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N18">
         <v>19.1</v>
@@ -1709,13 +1709,13 @@
         <v>24.05</v>
       </c>
       <c r="Q18">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R18">
         <v>0.15</v>
       </c>
       <c r="S18">
-        <v>15.37909090909091</v>
+        <v>15.38</v>
       </c>
       <c r="T18">
         <v>0.15</v>
@@ -1724,7 +1724,7 @@
         <v>24.2</v>
       </c>
       <c r="V18">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1759,13 +1759,13 @@
         <v>41.11</v>
       </c>
       <c r="K19">
-        <v>-0.5616666666666666</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L19">
-        <v>0.8883333333333333</v>
+        <v>0.89</v>
       </c>
       <c r="M19">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
       <c r="N19">
         <v>15.7</v>
@@ -1777,7 +1777,7 @@
         <v>20.72</v>
       </c>
       <c r="Q19">
-        <v>13.782</v>
+        <v>13.78</v>
       </c>
       <c r="R19">
         <v>11.88</v>
@@ -1792,7 +1792,7 @@
         <v>41.11</v>
       </c>
       <c r="V19">
-        <v>4.480909090909091</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="20" spans="1:22">
